--- a/Spec/benchmark_results/Result.xlsx
+++ b/Spec/benchmark_results/Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76422A9-266B-4D87-8408-56B568F0E803}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA05A4C-4753-40EA-AA43-A3F5B85C4FBA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +159,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,12 +200,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,7 +501,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,279 +553,1030 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="e">
+      <c r="C2" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M2" s="6">
         <f>AVERAGE(C2:L2)</f>
-        <v>#DIV/0!</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="e">
+      <c r="C3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M26" si="0">AVERAGE(C3:L3)</f>
-        <v>#DIV/0!</v>
+        <v>0.68900000000000006</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68900000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69400000000000006</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C6" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55099999999999993</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C9" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C10" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="I10" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12500000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C13" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C14" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C15" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.31</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.37</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.314</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67199999999999993</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C21" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67000000000000015</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C22" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.67</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="e">
+      <c r="C27" s="3">
         <f>AVERAGE(C2:C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="1" t="e">
-        <f t="shared" ref="D27:M27" si="1">AVERAGE(D2:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="1" t="e">
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" ref="D27:L27" si="1">AVERAGE(D2:D26)</f>
+        <v>0.62279999999999991</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>0.62080000000000002</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="1" t="e">
+        <v>0.57879999999999998</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="1" t="e">
+        <v>0.59559999999999991</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="1" t="e">
+        <v>0.62599999999999989</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="1" t="e">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="1" t="e">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
+        <v>0.62440000000000007</v>
+      </c>
+      <c r="M27" s="1">
         <f>AVERAGE(M2:M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.61312</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -811,7 +1585,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,274 +1637,1024 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="e">
+      <c r="C2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="M2" s="6">
         <f>AVERAGE(C2:L2)</f>
-        <v>#DIV/0!</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="e">
+      <c r="C3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M26" si="0">AVERAGE(C3:L3)</f>
-        <v>#DIV/0!</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69700000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71500000000000008</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71199999999999997</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C9" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61199999999999988</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C10" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.24</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32199999999999995</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75099999999999989</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70300000000000007</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C13" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7360000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C14" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C15" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.51</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47399999999999992</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68800000000000006</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69800000000000006</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C19" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C21" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C22" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79599999999999993</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69100000000000006</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68299999999999994</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="e">
+      <c r="C27" s="3">
         <f>AVERAGE(C2:C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="1" t="e">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="D27" s="3">
         <f t="shared" ref="D27:L27" si="1">AVERAGE(D2:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="1" t="e">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>0.68999999999999984</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="1" t="e">
+        <v>0.66759999999999986</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="1" t="e">
+        <v>0.68319999999999992</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="1" t="e">
+        <v>0.67199999999999993</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="1" t="e">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="1" t="e">
+        <v>0.61120000000000008</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
+        <v>0.78520000000000001</v>
+      </c>
+      <c r="M27" s="1">
         <f>AVERAGE(M2:M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.67544000000000015</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1144,7 +2668,7 @@
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,274 +2720,1024 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="e">
+      <c r="C2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="M2" s="6">
         <f>AVERAGE(C2:L2)</f>
-        <v>#DIV/0!</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="e">
+      <c r="C3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="M3" s="6">
         <f t="shared" ref="M3:M26" si="0">AVERAGE(C3:L3)</f>
-        <v>#DIV/0!</v>
+        <v>0.70500000000000007</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="M4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70200000000000007</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="M5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72200000000000009</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C6" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="M6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C7" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C8" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.93</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C9" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C10" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.34</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.36</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C11" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.78599999999999992</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C12" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C13" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C14" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C15" s="4">
+        <v>0.53</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69399999999999995</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="M17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C19" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.83</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.83799999999999986</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C20" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.77</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7350000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C21" s="4">
+        <v>0.71</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.81</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80800000000000005</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C22" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.63</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79899999999999993</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="M23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.72</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.69</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0.67</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0.87</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.65</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="1" t="e">
+      <c r="C27" s="3">
         <f>AVERAGE(C2:C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="1" t="e">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="D27" s="3">
         <f t="shared" ref="D27:L27" si="1">AVERAGE(D2:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="1" t="e">
+        <v>0.71160000000000001</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="1" t="e">
+        <v>0.73439999999999994</v>
+      </c>
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>0.70359999999999989</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="1" t="e">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="1" t="e">
+        <v>0.69679999999999975</v>
+      </c>
+      <c r="I27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="1" t="e">
+        <v>0.69199999999999984</v>
+      </c>
+      <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="1" t="e">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="1" t="e">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="L27" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
+        <v>0.80480000000000007</v>
+      </c>
+      <c r="M27" s="1">
         <f>AVERAGE(M2:M26)</f>
-        <v>#DIV/0!</v>
+        <v>0.69412000000000007</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
